--- a/test.xlsx
+++ b/test.xlsx
@@ -40,25 +40,15 @@
       <sz val="14.0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -66,36 +56,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -112,7 +78,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
@@ -133,7 +99,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="123" r:id="rId3" sheetId="1"/>
@@ -23,21 +23,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -13,11 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>这是一个单元格,,很长很长很长</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,9 +65,11 @@
     <col min="1" max="1" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.0" customHeight="true">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
+    <row r="1" customHeight="1" ht="50.0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>这是一个单元格,,很长很长很长</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -90,9 +88,11 @@
     <col min="1" max="1" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.0" customHeight="true">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
+    <row r="1" customHeight="1" ht="50.0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>这是一个单元格,,很长很长很长</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -72,6 +72,13 @@
         </is>
       </c>
     </row>
+    <row r="2" customHeight="1" ht="50.0">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>这是一个单元格,,很长很长很长</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -79,7 +86,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -95,6 +102,13 @@
         </is>
       </c>
     </row>
+    <row r="2" customHeight="1" ht="50.0">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>这是一个单元格,,很长很长很长</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -56,7 +56,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="50.0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>这是一个单元格,,很长很长很长</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -72,43 +95,6 @@
         </is>
       </c>
     </row>
-    <row r="2" customHeight="1" ht="50.0">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>这是一个单元格,,很长很长很长</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" ht="50.0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>这是一个单元格,,很长很长很长</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customHeight="1" ht="50.0">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>这是一个单元格,,很长很长很长</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
